--- a/REVER_DailyTracker_20200730.xlsx
+++ b/REVER_DailyTracker_20200730.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE40DF8-3CEA-4706-A074-D29F1AD8366D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B2E7ED-3BC7-4D1A-A18F-637E346720CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>1. One update is received for Goods Receiving Details task and completed, tested in all SSCs.</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Input Man DLL Issue License Issue fixed and two Project Build</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +416,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -488,10 +502,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -530,9 +547,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{8C51C8F6-4E8B-462F-B34B-949CCDC7AA4A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -847,22 +869,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+    <sheetView topLeftCell="A196" workbookViewId="0">
       <selection activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -883,7 +905,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -893,8 +915,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -906,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -917,10 +939,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -934,9 +956,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -950,9 +972,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -966,8 +988,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -984,19 +1006,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1014,13 +1036,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1034,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1056,7 +1078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1064,12 +1086,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1077,7 +1099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1088,7 +1110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1099,7 +1121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1110,12 +1132,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1126,7 +1148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1137,12 +1159,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1158,7 +1180,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1166,7 +1188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1174,12 +1196,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1187,7 +1209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1195,7 +1217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1211,12 +1233,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1232,7 +1254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1256,12 +1278,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1277,7 +1299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1285,7 +1307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1301,12 +1323,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1314,7 +1336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1322,7 +1344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1338,7 +1360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1346,7 +1368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1362,12 +1384,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1383,12 +1405,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1396,22 +1418,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1441,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1443,12 +1465,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1478,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1472,17 +1494,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1490,7 +1512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1498,17 +1520,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1516,12 +1538,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1529,27 +1551,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1557,7 +1579,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
@@ -1577,18 +1599,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1611,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1620,7 +1642,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1629,46 +1651,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1685,22 +1707,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1723,16 +1745,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44042</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1741,46 +1771,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1801,18 +1831,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1844,7 +1874,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1853,46 +1883,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1913,18 +1943,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1947,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1956,7 +1986,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1965,46 +1995,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2025,18 +2055,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2059,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2080,7 +2110,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2089,46 +2119,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2149,18 +2179,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2183,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2192,7 +2222,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2201,46 +2231,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2261,18 +2291,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2295,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2304,7 +2334,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2313,46 +2343,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2373,18 +2403,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2407,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2416,7 +2446,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2425,46 +2455,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2485,18 +2515,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2519,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2528,7 +2558,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2537,46 +2567,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200730.xlsx
+++ b/REVER_DailyTracker_20200730.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B2E7ED-3BC7-4D1A-A18F-637E346720CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87F676-A4C6-4284-9E33-C549747238CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
   <si>
     <t>Task</t>
   </si>
@@ -386,6 +380,12 @@
   </si>
   <si>
     <t>Input Man DLL Issue License Issue fixed and two Project Build</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>Service Part return code changes</t>
   </si>
 </sst>
 </file>
@@ -873,15 +873,15 @@
       <selection activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -916,7 +916,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -942,7 +942,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -974,7 +974,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1233,12 +1233,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1599,15 +1599,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1707,19 +1707,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1831,15 +1831,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1939,19 +1939,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1980,9 +1980,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -2055,15 +2061,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2179,15 +2185,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2291,15 +2297,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2403,15 +2409,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2515,15 +2521,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
